--- a/biology/Botanique/Cyperus_laevigatus/Cyperus_laevigatus.xlsx
+++ b/biology/Botanique/Cyperus_laevigatus/Cyperus_laevigatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le Souchet à deux épis ou Cyperus laevigatus est une espèce de plante du genre Cyperus et de la famille des cypéracées poussant dans les milieux humides, particulièrement saumâtres et alcalins, de tous les continents.
 Elle comprend plusieurs sous-espèces et variétés distinctes :
